--- a/user study1/Study1 Reuslt/p12_annotate.xlsx
+++ b/user study1/Study1 Reuslt/p12_annotate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\user study1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31295\Desktop\tosem\PromptSapper\user study1\Study1 Reuslt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FFE7E0-9A47-481A-92FC-642330403275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36A426C-4C8D-4196-8D2A-012F8B8695F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{2C72FDC3-255B-804D-BC11-7750DA69CF6C}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{2C72FDC3-255B-804D-BC11-7750DA69CF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="135">
   <si>
     <t>Name</t>
   </si>
@@ -492,9 +492,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>失败测试次数</t>
-  </si>
-  <si>
     <t>第二个prompt没有放进变量</t>
   </si>
   <si>
@@ -527,13 +524,82 @@
   <si>
     <t>p12</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time (search + code writing) seconds</t>
+  </si>
+  <si>
+    <t>Time (test) seconds</t>
+  </si>
+  <si>
+    <t>Test start time</t>
+  </si>
+  <si>
+    <t>Was it done correctly? (If done incorrectly, where was it done incorrectly?) Y/N</t>
+  </si>
+  <si>
+    <t>Error1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error2</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Did you identify issues through testing and make revisions? (Y/N)</t>
+  </si>
+  <si>
+    <t>Did Test 1 pass? Y/N</t>
+  </si>
+  <si>
+    <t>Reason for failure</t>
+  </si>
+  <si>
+    <t>Did Test 2 pass? Y/N</t>
+  </si>
+  <si>
+    <t>Reason for failure?</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 1</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 2</t>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time-consuming aspects and potential reasons: 4</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Was SapperV2 used with the Design View? Y/N</t>
+  </si>
+  <si>
+    <t>If not used, what do you think is the reason?</t>
+  </si>
+  <si>
+    <t>If yes, how was it used?</t>
+  </si>
+  <si>
+    <t>Did you make any modifications to the generated code?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,6 +678,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -835,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1076,6 +1157,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,11 +1482,11 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="54.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="1" max="1" width="54.6328125" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1444,7 +1529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
+    <row r="14" spans="1:13" ht="16.2" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>0</v>
       </c>
@@ -1736,7 +1821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="78.75">
+    <row r="23" spans="1:14" ht="78">
       <c r="A23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1761,7 +1846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="126">
+    <row r="24" spans="1:14" ht="124.8">
       <c r="A24" s="7" t="s">
         <v>16</v>
       </c>
@@ -1919,7 +2004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="63">
+    <row r="30" spans="1:14" ht="62.4">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +2052,7 @@
       <c r="M31" s="24"/>
       <c r="N31" s="66"/>
     </row>
-    <row r="32" spans="1:14" ht="31.5">
+    <row r="32" spans="1:14" ht="31.2">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -2017,12 +2102,12 @@
       <c r="M34" s="36"/>
       <c r="N34" s="69"/>
     </row>
-    <row r="35" spans="1:14" ht="126">
+    <row r="35" spans="1:14" ht="124.8">
       <c r="A35" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>80</v>
@@ -2061,7 +2146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="173.25">
+    <row r="36" spans="1:14" ht="156">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2282,7 @@
       <c r="L42" s="35"/>
       <c r="M42" s="36"/>
     </row>
-    <row r="43" spans="1:14" ht="63">
+    <row r="43" spans="1:14" ht="62.4">
       <c r="A43" s="7" t="s">
         <v>10</v>
       </c>
@@ -2222,7 +2307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.5" thickBot="1">
+    <row r="44" spans="1:14" ht="16.2" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
@@ -2305,7 +2390,7 @@
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
     </row>
-    <row r="53" spans="1:13" ht="16.5" thickBot="1">
+    <row r="53" spans="1:13" ht="16.2" thickBot="1">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2554,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="24"/>
     </row>
-    <row r="60" spans="1:13" ht="15.95" customHeight="1">
+    <row r="60" spans="1:13" ht="15.9" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="28"/>
       <c r="C60" s="29"/>
@@ -2663,7 +2748,7 @@
       <c r="L70" s="22"/>
       <c r="M70" s="24"/>
     </row>
-    <row r="71" spans="1:13" ht="47.25">
+    <row r="71" spans="1:13" ht="46.8">
       <c r="A71" s="2" t="s">
         <v>36</v>
       </c>
@@ -2697,7 +2782,7 @@
       <c r="L72" s="22"/>
       <c r="M72" s="24"/>
     </row>
-    <row r="73" spans="1:13" ht="78.75">
+    <row r="73" spans="1:13" ht="78">
       <c r="A73" s="2" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2803,7 @@
       <c r="L73" s="35"/>
       <c r="M73" s="36"/>
     </row>
-    <row r="74" spans="1:13" ht="100.5">
+    <row r="74" spans="1:13" ht="83.4">
       <c r="A74" s="7" t="s">
         <v>12</v>
       </c>
@@ -2739,7 +2824,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="24"/>
     </row>
-    <row r="75" spans="1:13" ht="72">
+    <row r="75" spans="1:13" ht="69.599999999999994">
       <c r="A75" s="2" t="s">
         <v>13</v>
       </c>
@@ -2758,7 +2843,7 @@
       <c r="L75" s="35"/>
       <c r="M75" s="36"/>
     </row>
-    <row r="76" spans="1:13" ht="47.25">
+    <row r="76" spans="1:13" ht="46.8">
       <c r="A76" s="7" t="s">
         <v>14</v>
       </c>
@@ -2828,7 +2913,7 @@
       <c r="L79" s="35"/>
       <c r="M79" s="36"/>
     </row>
-    <row r="80" spans="1:13" ht="63">
+    <row r="80" spans="1:13" ht="62.4">
       <c r="A80" s="15" t="s">
         <v>50</v>
       </c>
@@ -2847,7 +2932,7 @@
       <c r="L80" s="35"/>
       <c r="M80" s="36"/>
     </row>
-    <row r="81" spans="1:13" ht="31.5">
+    <row r="81" spans="1:13" ht="31.2">
       <c r="A81" s="7" t="s">
         <v>10</v>
       </c>
@@ -2866,7 +2951,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="24"/>
     </row>
-    <row r="82" spans="1:13" ht="16.5" thickBot="1">
+    <row r="82" spans="1:13" ht="16.2" thickBot="1">
       <c r="A82" s="7" t="s">
         <v>46</v>
       </c>
@@ -2887,18 +2972,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="B54:E54"/>
     <mergeCell ref="F54:I54"/>
     <mergeCell ref="J54:M54"/>
     <mergeCell ref="B55:E55"/>
     <mergeCell ref="F55:I55"/>
     <mergeCell ref="J55:M55"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2908,396 +2993,656 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E64B11-6482-C347-844E-9412DA44EC09}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" style="98" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2"/>
+      <c r="B2" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="96"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1"/>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="23">
+        <v>645</v>
+      </c>
+      <c r="C5" s="71">
+        <v>241</v>
+      </c>
+      <c r="D5" s="22">
+        <v>202</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1176</v>
+      </c>
+      <c r="F5" s="59">
+        <v>95</v>
+      </c>
+      <c r="G5" s="25">
+        <v>310</v>
+      </c>
+      <c r="H5" s="25">
+        <v>480</v>
+      </c>
+      <c r="I5" s="26">
+        <v>142</v>
+      </c>
+      <c r="J5" s="27">
+        <v>120</v>
+      </c>
+      <c r="K5" s="22">
+        <v>463</v>
+      </c>
+      <c r="L5" s="22">
+        <v>224</v>
+      </c>
+      <c r="M5" s="66">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="28">
+        <v>21</v>
+      </c>
+      <c r="C6" s="77">
+        <v>140</v>
+      </c>
+      <c r="D6" s="29">
+        <v>59</v>
+      </c>
+      <c r="E6" s="30">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>27</v>
+      <c r="F6" s="31">
+        <v>25</v>
+      </c>
+      <c r="G6" s="32">
+        <v>53</v>
+      </c>
+      <c r="H6" s="32">
+        <v>31</v>
+      </c>
+      <c r="I6" s="62">
+        <v>46</v>
+      </c>
+      <c r="J6" s="34">
+        <v>30</v>
+      </c>
+      <c r="K6" s="35">
+        <v>46</v>
+      </c>
+      <c r="L6" s="35">
+        <v>65</v>
+      </c>
+      <c r="M6" s="67">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>59</v>
+      <c r="A7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C7" s="80">
+        <v>0.1673611111111111</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0.14027777777777778</v>
+      </c>
+      <c r="E7" s="58">
+        <v>0.81597222222222221</v>
+      </c>
+      <c r="F7" s="37">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="G7" s="60">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="H7" s="60">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="61">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="J7" s="56">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0.3215277777777778</v>
+      </c>
+      <c r="L7" s="38">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A14" s="7" t="s">
+      <c r="A9" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="78">
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="124.8">
+      <c r="A11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="76">
+        <v>5</v>
+      </c>
+      <c r="C15" s="77">
+        <v>1</v>
+      </c>
+      <c r="D15" s="77">
+        <v>1</v>
+      </c>
+      <c r="E15" s="78">
+        <v>12</v>
+      </c>
+      <c r="F15" s="79">
         <v>0</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="90"/>
+      <c r="G15" s="75">
+        <v>2</v>
+      </c>
+      <c r="H15" s="75">
+        <v>3</v>
+      </c>
+      <c r="I15" s="42">
+        <v>1</v>
+      </c>
+      <c r="J15" s="74">
+        <v>1</v>
+      </c>
+      <c r="K15" s="72">
+        <v>3</v>
+      </c>
+      <c r="L15" s="72">
+        <v>0</v>
+      </c>
+      <c r="M15" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="96"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="31.2">
+      <c r="A17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="23">
-        <v>645</v>
-      </c>
-      <c r="C18" s="71">
-        <v>241</v>
-      </c>
-      <c r="D18" s="22">
-        <v>202</v>
-      </c>
-      <c r="E18" s="24">
-        <v>1176</v>
-      </c>
-      <c r="F18" s="59">
-        <v>95</v>
-      </c>
-      <c r="G18" s="25">
-        <v>310</v>
-      </c>
-      <c r="H18" s="25">
-        <v>480</v>
-      </c>
-      <c r="I18" s="26">
-        <v>142</v>
-      </c>
-      <c r="J18" s="27">
-        <v>120</v>
-      </c>
-      <c r="K18" s="22">
-        <v>463</v>
-      </c>
-      <c r="L18" s="22">
-        <v>224</v>
-      </c>
-      <c r="M18" s="66">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>125</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="22"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" ht="31.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="28">
-        <v>21</v>
-      </c>
-      <c r="C19" s="77">
-        <v>140</v>
-      </c>
-      <c r="D19" s="29">
-        <v>59</v>
-      </c>
-      <c r="E19" s="30">
-        <v>23</v>
-      </c>
-      <c r="F19" s="31">
-        <v>25</v>
-      </c>
-      <c r="G19" s="32">
-        <v>53</v>
-      </c>
-      <c r="H19" s="32">
-        <v>31</v>
-      </c>
-      <c r="I19" s="62">
-        <v>46</v>
-      </c>
-      <c r="J19" s="34">
-        <v>30</v>
-      </c>
-      <c r="K19" s="35">
-        <v>46</v>
-      </c>
-      <c r="L19" s="35">
-        <v>65</v>
-      </c>
-      <c r="M19" s="67">
-        <v>90</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="37">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="C20" s="80">
-        <v>0.1673611111111111</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0.14027777777777778</v>
-      </c>
-      <c r="E20" s="58">
-        <v>0.81597222222222221</v>
-      </c>
-      <c r="F20" s="37">
-        <v>6.5972222222222224E-2</v>
-      </c>
-      <c r="G20" s="60">
-        <v>0.21527777777777779</v>
-      </c>
-      <c r="H20" s="60">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I20" s="61">
-        <v>9.8611111111111108E-2</v>
-      </c>
-      <c r="J20" s="56">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K20" s="38">
-        <v>0.3215277777777778</v>
-      </c>
-      <c r="L20" s="38">
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="M20" s="65">
-        <v>0.1875</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="28"/>
+      <c r="A21"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="34"/>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="14" t="s">
-        <v>53</v>
+    <row r="22" spans="1:13" ht="171.6">
+      <c r="A22" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>67</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C22" s="22"/>
       <c r="D22" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>68</v>
+        <v>108</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="71" t="s">
+        <v>110</v>
       </c>
       <c r="L22" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="63" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="78.75">
+        <v>110</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="156">
       <c r="A23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="39"/>
+        <v>128</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>107</v>
+      </c>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
-      <c r="E23" s="30" t="s">
-        <v>86</v>
-      </c>
+      <c r="E23" s="30"/>
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
-      <c r="H23" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="L23" s="72" t="s">
-        <v>102</v>
-      </c>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="126">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>129</v>
+      </c>
+      <c r="B24" s="44"/>
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="24" t="s">
-        <v>87</v>
-      </c>
+      <c r="E24" s="24"/>
       <c r="F24" s="27"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
-      <c r="I24" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="71" t="s">
-        <v>104</v>
-      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="24"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="39"/>
+        <v>130</v>
+      </c>
+      <c r="B25" s="45"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
@@ -3305,15 +3650,13 @@
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="42"/>
-      <c r="J25" s="74"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
       <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="7"/>
       <c r="B26" s="27"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -3321,13 +3664,14 @@
       <c r="F26" s="27"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="73"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
       <c r="M26" s="24"/>
     </row>
     <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
       <c r="B27" s="39"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -3335,438 +3679,140 @@
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="74"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="76">
-        <v>5</v>
-      </c>
-      <c r="C28" s="77">
-        <v>1</v>
-      </c>
-      <c r="D28" s="77">
-        <v>1</v>
-      </c>
-      <c r="E28" s="78">
-        <v>12</v>
-      </c>
-      <c r="F28" s="79">
-        <v>0</v>
-      </c>
-      <c r="G28" s="75">
-        <v>2</v>
-      </c>
-      <c r="H28" s="75">
-        <v>3</v>
-      </c>
-      <c r="I28" s="42">
-        <v>1</v>
-      </c>
-      <c r="J28" s="74">
-        <v>1</v>
-      </c>
-      <c r="K28" s="72">
-        <v>3</v>
-      </c>
-      <c r="L28" s="72">
-        <v>0</v>
-      </c>
-      <c r="M28" s="36">
-        <v>1</v>
+      <c r="A28" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="31.5">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L31" s="22"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="1:13" ht="31.5">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="B34" s="39"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="1:13" ht="173.25">
-      <c r="A35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="71" t="s">
+      <c r="A29" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+    </row>
+    <row r="30" spans="1:13" ht="62.4">
+      <c r="A30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="16.2" thickBot="1">
+      <c r="A31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="K35" s="71" t="s">
+      <c r="K31" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="L35" s="71" t="s">
+      <c r="L31" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="M35" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="173.25">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="7"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="24"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="2"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="36"/>
-    </row>
-    <row r="43" spans="1:13" ht="63">
-      <c r="A43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="27"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A44" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="81" t="s">
-        <v>112</v>
-      </c>
-      <c r="K44" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="L44" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="M44" s="55" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
+      <c r="M31" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:M3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
